--- a/biology/Médecine/Protection_maternelle_et_infantile/Protection_maternelle_et_infantile.xlsx
+++ b/biology/Médecine/Protection_maternelle_et_infantile/Protection_maternelle_et_infantile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Protection maternelle et infantile, ou PMI, est un système de protection de la mère et de l'enfant, créé en France par une ordonnance du 2 novembre 1945[1] voulue par le ministre de la Santé François Billoux. Cette création fut très largement inspirée par l'Association Alsacienne et Lorraine de puériculture, créée en 1920 par le pédiatre alsacien Paul Rohmer (1876-1977).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Protection maternelle et infantile, ou PMI, est un système de protection de la mère et de l'enfant, créé en France par une ordonnance du 2 novembre 1945 voulue par le ministre de la Santé François Billoux. Cette création fut très largement inspirée par l'Association Alsacienne et Lorraine de puériculture, créée en 1920 par le pédiatre alsacien Paul Rohmer (1876-1977).
 La PMI a joué un rôle précurseur dans la distribution de la pilule contraceptive.
 La PMI est gérée par le Conseil départemental. Ainsi, elle se situe souvent dans les centres médico-sociaux. Cela permet notamment un travail en étroite collaboration entre infirmiers en puériculture, psychologues, les médecins de PMI, les sages-femmes de PMI, les assistants de service social, les éducateurs de jeunes enfants et les accueils de loisirs. La PMI propose des suivis de grossesse : ainsi un suivi de chaque femme est établi dans les PMI où elles se rendent.
 </t>
@@ -513,7 +525,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mesures de prévention médicales, psychologiques, sociales et d’éducation pour la santé en faveur des futurs parents et des enfants.
 Actions de prévention et de dépistage des handicaps des enfants de moins de six ans ainsi que de conseil aux familles pour la prise en charge de ces handicaps.
@@ -546,7 +560,9 @@
           <t>Usagers de la Protection maternelle et infantile</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adolescents, jeunes adultes, futurs parents
@@ -579,7 +595,9 @@
           <t>Admission et prise en charge des usagers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Femmes enceintes : les déclarations de grossesse sont transmises à la Protection maternelle et infantile, et reçoivent une lettre de mise à disposition. La demande peut aussi venir de la femme enceinte ou bien par demande du médecin généraliste.
 Enfant en danger : signalement auprès de la cellule de recueil de l'information préoccupante (CRIP) et la PMI établit une enquête médico-sociale par la suite.</t>
@@ -610,7 +628,9 @@
           <t>Tarifs et prise en charge financière des usagers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Service public gratuit pour l'usager.
 Les frais de fonctionnement de la Protection maternelle et infantile sont intégrés au budget du conseil départemental.
